--- a/data/evaluation/evaluation_North_Summer_Apples.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Apples.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1625.111465036668</v>
+        <v>1631.172319882212</v>
       </c>
       <c r="C4" t="n">
-        <v>4404479.815914623</v>
+        <v>4391279.680558811</v>
       </c>
       <c r="D4" t="n">
-        <v>2098.685258897728</v>
+        <v>2095.538040828372</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3382700592980282</v>
+        <v>0.3402532503106646</v>
       </c>
     </row>
     <row r="5">
